--- a/takvim_veribankasi.xlsx
+++ b/takvim_veribankasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahan\Documents\DinamikRubrik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E550C2-EDCA-4961-A7C2-FC955D5339CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B03A82A-C84E-4817-8318-DD0E0AB225B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Tatil_Adi</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Etkinlik_Adi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baslangic_Tarihi </t>
   </si>
   <si>
     <t xml:space="preserve">	
@@ -99,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -137,7 +134,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,14 +143,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,7 +436,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -462,7 +459,7 @@
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>45934</v>
@@ -473,7 +470,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>45959</v>
@@ -484,7 +481,7 @@
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>45971</v>
@@ -495,7 +492,7 @@
     </row>
     <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>45985</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>46082</v>
@@ -517,7 +514,7 @@
     </row>
     <row r="7" spans="1:3" ht="29">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>46093</v>
@@ -538,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
